--- a/data/input/CRUSTACEAN/Crustacean_Pathogen_TaxSyn_List.xlsx
+++ b/data/input/CRUSTACEAN/Crustacean_Pathogen_TaxSyn_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE67"/>
+  <dimension ref="A1:CE68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,39 +2032,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Niallia circulans</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bacillus circulans</t>
-        </is>
-      </c>
+          <t>Bacillus licheniformis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bacillus sp. 3399BRRJ</t>
+          <t>Clostridium licheniforme</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bacillus sp. NCIM 2107</t>
+          <t>Denitrobacillus licheniformis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bacillus sp. NCIM 5045</t>
+          <t>Bacillus sp. A7(2012)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bacillus sp. NCIM 5046</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>Bacillus sp. BS1(2013)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bacillus sp. EnB-bsys4</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bacillus sp. N11-8(2014)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Bacillus sp. NCIM 2325</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Bacillus sp. SHG10</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Bacillus sp. WED10.6</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -2141,25 +2157,45 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Priestia endophytica</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bacillus endophyticus</t>
-        </is>
-      </c>
+          <t>Bacillus pumilus</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bacillus endophyticus</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>Bacillus aminoglucosidicus</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bacillus sp. CRBC-Kohala</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bacillus sp. ES-3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bacillus sp. LK21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bacillus sp. LK32</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bacillus sp. RI06-95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bacillus sp. nhk</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -2238,55 +2274,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bacillus licheniformis</t>
+          <t>Bacillus safensis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Clostridium licheniforme</t>
+          <t>Bacillus sp. B7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Denitrobacillus licheniformis</t>
+          <t>Bacillus sp. MS11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bacillus sp. A7(2012)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bacillus sp. BS1(2013)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Bacillus sp. EnB-bsys4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Bacillus sp. N11-8(2014)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 2325</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Bacillus sp. SHG10</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Bacillus sp. WED10.6</t>
-        </is>
-      </c>
+          <t>Bacillus sp. SDF0016</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2363,68 +2375,160 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bacillus pumilus</t>
+          <t>Bacillus subtilis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bacillus aminoglucosidicus</t>
+          <t>Bacillus natto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bacillus sp. CRBC-Kohala</t>
+          <t>Bacillus uniflagellatus</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bacillus sp. ES-3</t>
+          <t>Vibrio subtilis</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bacillus sp. LK21</t>
+          <t>Arthrobacter sp. CHR2P1B1-M</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bacillus sp. LK32</t>
+          <t>Bacillus sp. 10405</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bacillus sp. RI06-95</t>
+          <t>Bacillus sp. 15:2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bacillus sp. nhk</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
+          <t>Bacillus sp. AECSB01</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB04</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB05</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB06</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB07</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB08</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB12</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB13</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. AECSB14</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. BS4(2013)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. BS9(2013)</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. BV3</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. BV5</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. HE08</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. JKR21</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. LB002</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. LKM-BL</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. PW16b</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. PW19</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. RSP-GLU</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. S2 BC-1</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. SWI06</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Bacillus sp. UMX-03</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Brevibacillus sp. BHR3P2B5-M</t>
+        </is>
+      </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
@@ -2480,23 +2584,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bacillus safensis</t>
+          <t>Bacillus tequilensis</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bacillus sp. B7</t>
+          <t>Bacillus sp. ADIP3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bacillus sp. MS11</t>
+          <t>Bacillus sp. NOS6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bacillus sp. SDF0016</t>
+          <t>Bacillus sp. SN4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -2581,160 +2685,60 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bacillus subtilis</t>
+          <t>Brevibacillus brevis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bacillus natto</t>
+          <t>Bacillus brevis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bacillus uniflagellatus</t>
+          <t>Bacillus sp. NCIM 2531</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vibrio subtilis</t>
+          <t>Bacillus sp. NCIM 2534</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Arthrobacter sp. CHR2P1B1-M</t>
+          <t>Brevibacillus sp. JKR7</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bacillus sp. 10405</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. 15:2</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB01</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB04</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB05</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB06</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB07</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB08</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB12</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB13</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. AECSB14</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. BS4(2013)</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. BS9(2013)</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. BV3</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. BV5</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. HE08</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. JKR21</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. LB002</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. LKM-BL</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. PW16b</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. PW19</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. RSP-GLU</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. S2 BC-1</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. SWI06</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>Bacillus sp. UMX-03</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>Brevibacillus sp. BHR3P2B5-M</t>
-        </is>
-      </c>
+          <t>Lysinibacillus sp. SDF0063</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
@@ -2790,25 +2794,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bacillus tequilensis</t>
+          <t>Brevibacterium antarcticum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bacillus sp. ADIP3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NOS6</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Bacillus sp. SN4</t>
-        </is>
-      </c>
+          <t>'Brevibacterium antarcticum'</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -2891,35 +2887,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brevibacillus brevis</t>
+          <t>Brevibacterium sanguinis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bacillus brevis</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 2531</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Bacillus sp. NCIM 2534</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Brevibacillus sp. JKR7</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Lysinibacillus sp. SDF0063</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3000,23 +2976,55 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brevibacterium antarcticum</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>'Brevibacterium antarcticum'</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>Bacterium freundii</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Citrobacter ballerupensis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Escherichia freundii</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Salmonella ballerup</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Salmonella hormaechei</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>the Ballerup group of bacteria</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>the Bethesda group of bacteria</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Citrobacter sp. HPC1276</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Citrobacter sp. KDS 3</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -3093,17 +3101,49 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brevibacterium sanguinis</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+          <t>Enterococcus casseliflavus</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Enterococcus flavescens</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Enterococcus flavescens</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Streptococcus casseliflavus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Streptococcus faecium subsp. casseliflavus</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Streptococcus faecium var. casseliflavus</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Streptococcus flavescens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Enterococcus sp. LMG 12310</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Enterococcus sp. VTT E-96690</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -3182,53 +3222,53 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Enterococcus faecalis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bacterium freundii</t>
+          <t>Enterococcus proteiformis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Citrobacter ballerupensis</t>
+          <t>Enterocoque</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Escherichia freundii</t>
+          <t>Micrococcus ovalis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Salmonella ballerup</t>
+          <t>Micrococcus zymogenes</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Salmonella hormaechei</t>
+          <t>Streptococcus faecalis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>the Ballerup group of bacteria</t>
+          <t>Streptococcus glycerinaceus</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>the Bethesda group of bacteria</t>
+          <t>Streptococcus liquefaciens</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Citrobacter sp. HPC1276</t>
+          <t>Enterococcus sp. 7L76</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Citrobacter sp. KDS 3</t>
+          <t>Enterococcus sp. KB1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -3307,45 +3347,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Enterococcus casseliflavus</t>
+          <t>Exiguobacterium oxidotolerans</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Enterococcus flavescens</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Streptococcus casseliflavus</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Streptococcus faecium subsp. casseliflavus</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Streptococcus faecium var. casseliflavus</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Streptococcus flavescens</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Enterococcus sp. LMG 12310</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Enterococcus sp. VTT E-96690</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -3424,55 +3436,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
+          <t>Francisella tularensis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Enterococcus proteiformis</t>
+          <t>Bacterium tularense</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Enterocoque</t>
+          <t>Brucella tularensis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Micrococcus ovalis</t>
+          <t>Francisella tularense</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Micrococcus zymogenes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Streptococcus faecalis</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Streptococcus glycerinaceus</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Streptococcus liquefaciens</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Enterococcus sp. 7L76</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Enterococcus sp. KB1</t>
-        </is>
-      </c>
+          <t>Pasteurella tularensis</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -3549,7 +3541,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Exiguobacterium oxidotolerans</t>
+          <t>Leucothrix mucor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -3638,30 +3630,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Francisella tularensis</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>Microbacterium aurantiacum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Microbacterium kitamiense</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bacterium tularense</t>
+          <t>Microbacterium kitamiense</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brucella tularensis</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Francisella tularense</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Pasteurella tularensis</t>
-        </is>
-      </c>
+          <t>Microbacterium laevaniformans ATCC 49090</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -3743,12 +3731,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Leucothrix mucor</t>
+          <t>Microbacterium oxydans</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Brevibacterium oxydans</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Microbacterium sp. W702</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -3832,49 +3828,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vibrio anguillarum</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Listonella anguillarum</t>
-        </is>
-      </c>
+          <t>Micrococcus flavus</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Achromobacter ichthyodermis</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Listonella anguillara</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Listonella anguillarum</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Pseudomonas ichthyodermis</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Vibrio ichthyodermis</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Vibrio piscium</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Vibrio piscium var. japonicus</t>
-        </is>
-      </c>
+          <t>Micrococcus sp. LW4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -3953,29 +3921,45 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Microbacterium aurantiacum</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Microbacterium kitamiense</t>
-        </is>
-      </c>
+          <t>Micrococcus luteus</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Microbacterium kitamiense</t>
+          <t>"Micrococcus flavus" Trevisan</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Microbacterium laevaniformans ATCC 49090</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>Bacteridium luteum</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Micrococcus lysodeikticus</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sarcina lutea</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Burkholderia sp. 2385</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Micrococcus sp. AIAM01</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Micrococcus sp. VTT E-072678</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -4054,20 +4038,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Microbacterium oxydans</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Brevibacterium oxydans</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Microbacterium sp. W702</t>
-        </is>
-      </c>
+          <t>Mycoplasma P1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mycoplasma monodon</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -4151,45 +4131,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Micrococcus luteus</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>Niallia circulans</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bacillus circulans</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Micrococcus flavus" Trevisan</t>
+          <t>Bacillus sp. 3399BRRJ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bacteridium luteum</t>
+          <t>Bacillus sp. NCIM 2107</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Micrococcus lysodeikticus</t>
+          <t>Bacillus sp. NCIM 5045</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sarcina lutea</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Burkholderia sp. 2385</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Micrococcus sp. AIAM01</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Micrococcus sp. VTT E-072678</t>
-        </is>
-      </c>
+          <t>Bacillus sp. NCIM 5046</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -4268,15 +4240,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mycoplasma P1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Mycoplasma monodon</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Paenibacillus lentimorbus</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bacillus lentimorbus</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -4361,24 +4333,60 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paenibacillus lentimorbus</t>
+          <t>Pantoea agglomerans</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bacillus lentimorbus</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>Bacillus milletiae</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bacterium herbicola</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Enterobacter agglomerans</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Erwinia herbicola</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Erwinia milletiae</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Pantoea herbicola</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pseudomonas herbicola</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Pantoea sp. ATCC 29923</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Pantoea sp. SL1_M5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>bacterium G33-1</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -4454,60 +4462,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pantoea agglomerans</t>
+          <t>Pasteuria ramosa</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Bacillus milletiae</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Bacterium herbicola</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Enterobacter agglomerans</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Erwinia herbicola</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Erwinia milletiae</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Pantoea herbicola</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Pseudomonas herbicola</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Pantoea sp. ATCC 29923</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Pantoea sp. SL1_M5</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>bacterium G33-1</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -4583,17 +4551,45 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pasteuria ramosa</t>
+          <t>Photobacterium damselae</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Listonella damsela (Love et al. 1982) MacDonell and Colwell 1986</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Listonella damselae corrig. (Love et al. 1982) MacDonell and Colwell 1986</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Photobacterium damsela</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Photobacterium damselae corrig. (Love et al. 1982) Smith et al. 1991</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Photobacterium histaminum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Vibrio damsela Love et al. 1982</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Vibrio damselae corrig. Love et al. 1982</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -4672,45 +4668,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Photobacterium damselae</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>Priestia endophytica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bacillus endophyticus</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Listonella damsela (Love et al. 1982) MacDonell and Colwell 1986</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Listonella damselae corrig. (Love et al. 1982) MacDonell and Colwell 1986</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Photobacterium damsela</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Photobacterium damselae corrig. (Love et al. 1982) Smith et al. 1991</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Photobacterium histaminum</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Vibrio damsela Love et al. 1982</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Vibrio damselae corrig. Love et al. 1982</t>
-        </is>
-      </c>
+          <t>Bacillus endophyticus</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -6283,17 +6259,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vibrio brasiliensis</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+          <t>Vibrio anguillarum</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Listonella anguillarum</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Achromobacter ichthyodermis</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Listonella anguillara</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Listonella anguillarum</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Pseudomonas ichthyodermis</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Vibrio ichthyodermis</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Vibrio piscium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Vibrio piscium var. japonicus</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -6372,40 +6380,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vibrio breoganii</t>
+          <t>Vibrio brasiliensis</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Vibrio sp. C 5.5</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Vibrio sp. CECT 7222</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Vibrio sp. CMJ 13.7</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 23858</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 24484</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Vibrio sp. VB 16.3</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6485,24 +6469,40 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Vibrio campbellii</t>
+          <t>Vibrio breoganii</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Beneckea campbellii</t>
+          <t>Vibrio sp. C 5.5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Vibrio sp. K11A1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>Vibrio sp. CECT 7222</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Vibrio sp. CMJ 13.7</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Vibrio sp. LMG 23858</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Vibrio sp. LMG 24484</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vibrio sp. VB 16.3</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6582,18 +6582,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vibrio chagasii</t>
+          <t>Vibrio campbellii</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 13219</t>
+          <t>Beneckea campbellii</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Vibrio sp. R-3712</t>
+          <t>Vibrio sp. K11A1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -6679,25 +6679,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vibrio crassostreae</t>
+          <t>Vibrio chagasii</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 15</t>
+          <t>Vibrio sp. LMG 13219</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 7</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Mel 8</t>
-        </is>
-      </c>
+          <t>Vibrio sp. R-3712</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -6780,17 +6776,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vibrio cyclitrophicus</t>
+          <t>Vibrio crassostreae</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vibrio sp. P-2P44</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>Vibrio sp. Mel 15</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Mel 7</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Mel 8</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -6873,30 +6877,18 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vibrio fortis</t>
+          <t>Vibrio cyclitrophicus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 21557</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 21558</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 21559</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Vibrio sp. LMG 21562</t>
-        </is>
-      </c>
+          <t>Vibrio sp. P-2P44</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -6978,26 +6970,30 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vibrio gigantis</t>
+          <t>Vibrio fortis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 13</t>
+          <t>Vibrio sp. LMG 21557</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 16</t>
+          <t>Vibrio sp. LMG 21558</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Vibrio sp. Mel 37</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>Vibrio sp. LMG 21559</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Vibrio sp. LMG 21562</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -7079,80 +7075,36 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vibrio harveyi</t>
+          <t>Vibrio gigantis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Achromobacter harveyi</t>
+          <t>Vibrio sp. Mel 13</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Beneckea harveyi</t>
+          <t>Vibrio sp. Mel 16</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Beneckea neptuna</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Lucibacterium harveyi</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Photobacterium harveyi</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Pseudomonas harveyi</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Vibrio carchariae</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Vibrio trachuri</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Vibrio sp. HENC-01</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Vibrio sp. HENC-02</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 001</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 002</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 006</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Vibrio sp. PG 007</t>
-        </is>
-      </c>
+          <t>Vibrio sp. Mel 37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
@@ -7224,28 +7176,80 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vibrio hepatarius</t>
+          <t>Vibrio harveyi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 20362</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+          <t>Achromobacter harveyi</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Beneckea harveyi</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Beneckea neptuna</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Lucibacterium harveyi</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Photobacterium harveyi</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Pseudomonas harveyi</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Vibrio carchariae</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Vibrio trachuri</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Vibrio sp. HENC-01</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Vibrio sp. HENC-02</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 001</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 002</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 006</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Vibrio sp. PG 007</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -7317,11 +7321,15 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vibrio lentus</t>
+          <t>Vibrio hepatarius</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Vibrio sp. LMG 20362</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -7406,15 +7414,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vibrio ordalii</t>
+          <t>Vibrio lentus</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Listonella ordalii</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -7499,70 +7503,26 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vibrio parahaemolyticus</t>
+          <t>Vibrio ordalii</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Beneckea parahaemolytica</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Oceanomonas parahaemolytica</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Pasteurella parahaemolytica</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M02</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M03</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M04</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M05</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M06</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M07</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M10</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M11</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Tumbes-M12</t>
-        </is>
-      </c>
+          <t>Listonella ordalii</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -7636,22 +7596,70 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vibrio penaeicida</t>
+          <t>Vibrio parahaemolyticus</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Beneckea parahaemolytica</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Oceanomonas parahaemolytica</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pasteurella parahaemolytica</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M03</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M04</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M05</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M06</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M07</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M10</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M11</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Tumbes-M12</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -7725,7 +7733,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Vibrio rotiferianus</t>
+          <t>Vibrio penaeicida</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -7814,55 +7822,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vibrio splendidus</t>
+          <t>Vibrio rotiferianus</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Beneckea splendida</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Photobacter splendidum</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Vibrio hemicentroti</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Vibrio sp. AlyHP32</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Vibrio sp. NBRC 101061</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/028/08 B</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/12/16 B</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/30/08 B</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Vibrio sp. S/63/15 B</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -7939,23 +7911,55 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vibrio tasmaniensis</t>
+          <t>Vibrio splendidus</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vibrio sp. LMG 20012</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+          <t>Beneckea splendida</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Photobacter splendidum</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Vibrio hemicentroti</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vibrio sp. AlyHP32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Vibrio sp. NBRC 101061</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/028/08 B</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/12/16 B</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/30/08 B</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Vibrio sp. S/63/15 B</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -8032,35 +8036,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vibrio tubiashii</t>
+          <t>Vibrio tasmaniensis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Listonella tubiashii</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Vibrio tubiashii subsp. tubiashii</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Vibrio sp. Fun1</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Vibrio sp. X1</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Vibrio sp. X6</t>
-        </is>
-      </c>
+          <t>Vibrio sp. LMG 20012</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -8141,19 +8129,35 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vibrio vulnificus</t>
+          <t>Vibrio tubiashii</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Beneckea vulnifica</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+          <t>Listonella tubiashii</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Vibrio tubiashii subsp. tubiashii</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Vibrio sp. Fun1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Vibrio sp. X1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Vibrio sp. X6</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -8234,11 +8238,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wolbachia pipientis</t>
+          <t>Vibrio vulnificus</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Beneckea vulnifica</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
@@ -8320,6 +8328,95 @@
       <c r="CD67" t="inlineStr"/>
       <c r="CE67" t="inlineStr"/>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Wolbachia pipientis</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AU68" t="inlineStr"/>
+      <c r="AV68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
+      <c r="AZ68" t="inlineStr"/>
+      <c r="BA68" t="inlineStr"/>
+      <c r="BB68" t="inlineStr"/>
+      <c r="BC68" t="inlineStr"/>
+      <c r="BD68" t="inlineStr"/>
+      <c r="BE68" t="inlineStr"/>
+      <c r="BF68" t="inlineStr"/>
+      <c r="BG68" t="inlineStr"/>
+      <c r="BH68" t="inlineStr"/>
+      <c r="BI68" t="inlineStr"/>
+      <c r="BJ68" t="inlineStr"/>
+      <c r="BK68" t="inlineStr"/>
+      <c r="BL68" t="inlineStr"/>
+      <c r="BM68" t="inlineStr"/>
+      <c r="BN68" t="inlineStr"/>
+      <c r="BO68" t="inlineStr"/>
+      <c r="BP68" t="inlineStr"/>
+      <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
+      <c r="BS68" t="inlineStr"/>
+      <c r="BT68" t="inlineStr"/>
+      <c r="BU68" t="inlineStr"/>
+      <c r="BV68" t="inlineStr"/>
+      <c r="BW68" t="inlineStr"/>
+      <c r="BX68" t="inlineStr"/>
+      <c r="BY68" t="inlineStr"/>
+      <c r="BZ68" t="inlineStr"/>
+      <c r="CA68" t="inlineStr"/>
+      <c r="CB68" t="inlineStr"/>
+      <c r="CC68" t="inlineStr"/>
+      <c r="CD68" t="inlineStr"/>
+      <c r="CE68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
